--- a/test/fixtures/files/Sara-Alert-Format-Isolation-Workflow.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Isolation-Workflow.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhack/git/SaraAlert/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashankland/git/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B0B801-FAA6-C643-977D-570F20C28974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2864EE-FB82-C345-ACB8-AF092E08094E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40160" yWindow="3660" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitorees" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="447">
   <si>
     <t>First Name</t>
   </si>
@@ -1352,6 +1352,15 @@
   </si>
   <si>
     <t>confirmed</t>
+  </si>
+  <si>
+    <t>Race Unknown</t>
+  </si>
+  <si>
+    <t>Race Other</t>
+  </si>
+  <si>
+    <t>Race Refused to Answer</t>
   </si>
 </sst>
 </file>
@@ -1704,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CU12"/>
+  <dimension ref="A1:CX12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CD1" workbookViewId="0">
-      <selection activeCell="CI13" sqref="CI13"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CJ1" workbookViewId="0">
+      <selection activeCell="CV4" sqref="CV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1809,9 +1818,14 @@
     <col min="95" max="95" width="12" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="23.33203125" customWidth="1"/>
+    <col min="99" max="99" width="18" customWidth="1"/>
+    <col min="100" max="100" width="19.1640625" customWidth="1"/>
+    <col min="101" max="101" width="13" customWidth="1"/>
+    <col min="102" max="102" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2109,8 +2123,17 @@
       <c r="CU1" t="s">
         <v>441</v>
       </c>
+      <c r="CV1" t="s">
+        <v>444</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>445</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>446</v>
+      </c>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2391,7 +2414,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -2675,7 +2698,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -2959,7 +2982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -3198,7 +3221,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -3449,7 +3472,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -3709,7 +3732,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -3966,7 +3989,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>235</v>
       </c>
@@ -4244,7 +4267,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>251</v>
       </c>
@@ -4528,7 +4551,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>271</v>
       </c>
@@ -4782,7 +4805,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>293</v>
       </c>

--- a/test/fixtures/files/Sara-Alert-Format-Isolation-Workflow.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Isolation-Workflow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashankland/git/SaraAlert/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2864EE-FB82-C345-ACB8-AF092E08094E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE61E72-799C-AF44-9372-B2D8BB3D6F71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1715,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CX12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CJ1" workbookViewId="0">
-      <selection activeCell="CV4" sqref="CV4"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CT1" workbookViewId="0">
+      <selection activeCell="CZ10" sqref="CZ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1803,11 +1803,11 @@
     <col min="80" max="80" width="35.1640625" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="38" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="11.5" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="14.5" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="16" bestFit="1" customWidth="1"/>
@@ -1817,12 +1817,12 @@
     <col min="94" max="94" width="16" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="12" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="23.33203125" customWidth="1"/>
-    <col min="99" max="99" width="18" customWidth="1"/>
-    <col min="100" max="100" width="19.1640625" customWidth="1"/>
-    <col min="101" max="101" width="13" customWidth="1"/>
-    <col min="102" max="102" width="23" customWidth="1"/>
+    <col min="97" max="97" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="16" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102" x14ac:dyDescent="0.15">
@@ -2124,10 +2124,10 @@
         <v>441</v>
       </c>
       <c r="CV1" t="s">
+        <v>445</v>
+      </c>
+      <c r="CW1" t="s">
         <v>444</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>445</v>
       </c>
       <c r="CX1" t="s">
         <v>446</v>

--- a/test/fixtures/files/Sara-Alert-Format-Isolation-Workflow.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Isolation-Workflow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE61E72-799C-AF44-9372-B2D8BB3D6F71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279ABD25-59A5-1D4B-B585-021B0F052A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="470">
   <si>
     <t>First Name</t>
   </si>
@@ -1361,6 +1361,75 @@
   </si>
   <si>
     <t>Race Refused to Answer</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Group Name</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Product Name</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Administration Date</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Dose Number</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Notes</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Group Name</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Product Name</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Administration Date</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Dose Number</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Notes</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>Moderna COVID-19 Vaccine</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>notes 1</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>notes 2</t>
+  </si>
+  <si>
+    <t>Pfizer-BioNTech COVID-19 Vaccine</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>2020-06-21</t>
+  </si>
+  <si>
+    <t>2020-06-04</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>Janssen (J&amp;J) COVID-19 Vaccine</t>
+  </si>
+  <si>
+    <t>2020-06-03</t>
   </si>
 </sst>
 </file>
@@ -1713,11 +1782,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CX12"/>
+  <dimension ref="A1:DH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CT1" workbookViewId="0">
-      <selection activeCell="CZ10" sqref="CZ10"/>
-    </sheetView>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1823,9 +1890,19 @@
     <col min="100" max="100" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="31" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="31" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2132,8 +2209,38 @@
       <c r="CX1" t="s">
         <v>446</v>
       </c>
+      <c r="CY1" t="s">
+        <v>447</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>448</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>450</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>451</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>452</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>453</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>455</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>456</v>
+      </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2413,8 +2520,38 @@
       <c r="CS2">
         <v>378</v>
       </c>
+      <c r="CY2" t="s">
+        <v>457</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>458</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>460</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>457</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>458</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="DG2">
+        <v>2</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>462</v>
+      </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -2697,8 +2834,32 @@
       <c r="CQ3" t="s">
         <v>93</v>
       </c>
+      <c r="CY3" t="s">
+        <v>457</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>463</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="DB3">
+        <v>1</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>457</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>463</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="DG3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -2981,8 +3142,32 @@
       <c r="CS4">
         <v>2</v>
       </c>
+      <c r="CY4" t="s">
+        <v>457</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>382</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>457</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>382</v>
+      </c>
+      <c r="DF4" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="DG4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -3220,8 +3405,20 @@
       <c r="CS5">
         <v>83</v>
       </c>
+      <c r="CY5" t="s">
+        <v>457</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>458</v>
+      </c>
+      <c r="DA5" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="DB5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -3471,8 +3668,20 @@
       <c r="CS6">
         <v>83</v>
       </c>
+      <c r="CY6" t="s">
+        <v>457</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>468</v>
+      </c>
+      <c r="DA6" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="DB6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -3731,8 +3940,20 @@
       <c r="CQ7" t="s">
         <v>321</v>
       </c>
+      <c r="CY7" t="s">
+        <v>457</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>382</v>
+      </c>
+      <c r="DA7" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="DB7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -3989,7 +4210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>235</v>
       </c>
@@ -4267,7 +4488,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>251</v>
       </c>
@@ -4551,7 +4772,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>271</v>
       </c>
@@ -4805,7 +5026,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>293</v>
       </c>

--- a/test/fixtures/files/Sara-Alert-Format-Isolation-Workflow.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Isolation-Workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279ABD25-59A5-1D4B-B585-021B0F052A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD43BD20-B79A-AA44-94F5-FC5E3AF7F951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="475">
   <si>
     <t>First Name</t>
   </si>
@@ -1430,6 +1430,21 @@
   </si>
   <si>
     <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>Follow-Up Reason</t>
+  </si>
+  <si>
+    <t>Follow-Up Note</t>
+  </si>
+  <si>
+    <t>High-Risk</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>example note</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DH12"/>
+  <dimension ref="A1:DJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0"/>
   </sheetViews>
@@ -1900,9 +1915,11 @@
     <col min="110" max="110" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2239,8 +2256,14 @@
       <c r="DH1" t="s">
         <v>456</v>
       </c>
+      <c r="DI1" t="s">
+        <v>470</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>471</v>
+      </c>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2550,8 +2573,14 @@
       <c r="DH2" t="s">
         <v>462</v>
       </c>
+      <c r="DI2" t="s">
+        <v>472</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>474</v>
+      </c>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -2858,8 +2887,11 @@
       <c r="DG3">
         <v>2</v>
       </c>
+      <c r="DI3" t="s">
+        <v>473</v>
+      </c>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -3167,7 +3199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -3418,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -3681,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -3953,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -4210,7 +4242,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>235</v>
       </c>
@@ -4488,7 +4520,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>251</v>
       </c>
@@ -4772,7 +4804,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>271</v>
       </c>
@@ -5026,7 +5058,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>293</v>
       </c>

--- a/test/fixtures/files/Sara-Alert-Format-Isolation-Workflow.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Isolation-Workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD43BD20-B79A-AA44-94F5-FC5E3AF7F951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279ABD25-59A5-1D4B-B585-021B0F052A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="470">
   <si>
     <t>First Name</t>
   </si>
@@ -1430,21 +1430,6 @@
   </si>
   <si>
     <t>2020-06-03</t>
-  </si>
-  <si>
-    <t>Follow-Up Reason</t>
-  </si>
-  <si>
-    <t>Follow-Up Note</t>
-  </si>
-  <si>
-    <t>High-Risk</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>example note</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DJ12"/>
+  <dimension ref="A1:DH12"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0"/>
   </sheetViews>
@@ -1915,11 +1900,9 @@
     <col min="110" max="110" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2256,14 +2239,8 @@
       <c r="DH1" t="s">
         <v>456</v>
       </c>
-      <c r="DI1" t="s">
-        <v>470</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>471</v>
-      </c>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2573,14 +2550,8 @@
       <c r="DH2" t="s">
         <v>462</v>
       </c>
-      <c r="DI2" t="s">
-        <v>472</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>474</v>
-      </c>
     </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -2887,11 +2858,8 @@
       <c r="DG3">
         <v>2</v>
       </c>
-      <c r="DI3" t="s">
-        <v>473</v>
-      </c>
     </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -3199,7 +3167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -3450,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -3713,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -3985,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -4242,7 +4210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>235</v>
       </c>
@@ -4520,7 +4488,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>251</v>
       </c>
@@ -4804,7 +4772,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>271</v>
       </c>
@@ -5058,7 +5026,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>293</v>
       </c>

--- a/test/fixtures/files/Sara-Alert-Format-Isolation-Workflow.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Isolation-Workflow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD43BD20-B79A-AA44-94F5-FC5E3AF7F951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E54A72-CBBD-F541-80DA-AAF4241D80B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="476">
   <si>
     <t>First Name</t>
   </si>
@@ -1084,9 +1084,6 @@
     <t>gevadsvgea</t>
   </si>
   <si>
-    <t>Afternoon</t>
-  </si>
-  <si>
     <t>Evening</t>
   </si>
   <si>
@@ -1276,15 +1273,6 @@
     <t>MORNING</t>
   </si>
   <si>
-    <t>mor ning</t>
-  </si>
-  <si>
-    <t>after-nOON</t>
-  </si>
-  <si>
-    <t>eve ning</t>
-  </si>
-  <si>
     <t>EVENinG</t>
   </si>
   <si>
@@ -1445,6 +1433,21 @@
   </si>
   <si>
     <t>example note</t>
+  </si>
+  <si>
+    <t>afternOON</t>
+  </si>
+  <si>
+    <t>03:00</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>Midnight</t>
+  </si>
+  <si>
+    <t>midnight</t>
   </si>
 </sst>
 </file>
@@ -2064,7 +2067,7 @@
       <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AX1" t="s">
@@ -2206,61 +2209,61 @@
         <v>310</v>
       </c>
       <c r="CR1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="CS1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="CT1" t="s">
+        <v>436</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>437</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>441</v>
+      </c>
+      <c r="CW1" t="s">
         <v>440</v>
       </c>
-      <c r="CU1" t="s">
-        <v>441</v>
-      </c>
-      <c r="CV1" t="s">
+      <c r="CX1" t="s">
+        <v>442</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>443</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>444</v>
+      </c>
+      <c r="DA1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="CW1" t="s">
-        <v>444</v>
-      </c>
-      <c r="CX1" t="s">
+      <c r="DB1" t="s">
         <v>446</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DC1" t="s">
         <v>447</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DD1" t="s">
         <v>448</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DE1" t="s">
         <v>449</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DG1" t="s">
         <v>451</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DH1" t="s">
         <v>452</v>
       </c>
-      <c r="DE1" t="s">
-        <v>453</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>455</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>456</v>
-      </c>
       <c r="DI1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="DJ1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:114" x14ac:dyDescent="0.15">
@@ -2295,7 +2298,7 @@
         <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L2" t="s">
         <v>92</v>
@@ -2394,13 +2397,13 @@
         <v>93</v>
       </c>
       <c r="AR2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AS2" t="s">
         <v>101</v>
       </c>
       <c r="AT2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AU2" t="s">
         <v>101</v>
@@ -2408,8 +2411,8 @@
       <c r="AV2" t="s">
         <v>103</v>
       </c>
-      <c r="AW2" t="s">
-        <v>417</v>
+      <c r="AW2" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="AX2" t="s">
         <v>104</v>
@@ -2439,7 +2442,7 @@
         <v>93</v>
       </c>
       <c r="BG2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="BH2" t="s">
         <v>93</v>
@@ -2511,7 +2514,7 @@
         <v>115</v>
       </c>
       <c r="CE2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="CF2" t="s">
         <v>93</v>
@@ -2544,40 +2547,40 @@
         <v>378</v>
       </c>
       <c r="CY2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="CZ2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="DB2">
         <v>1</v>
       </c>
       <c r="DC2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="DD2" t="s">
+        <v>453</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>454</v>
+      </c>
+      <c r="DF2" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>458</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="DG2">
         <v>2</v>
       </c>
       <c r="DH2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="DI2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="DJ2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:114" x14ac:dyDescent="0.15">
@@ -2612,7 +2615,7 @@
         <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L3" t="s">
         <v>92</v>
@@ -2651,7 +2654,7 @@
         <v>126</v>
       </c>
       <c r="X3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Z3" t="s">
         <v>93</v>
@@ -2708,22 +2711,22 @@
         <v>93</v>
       </c>
       <c r="AR3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AS3" t="s">
         <v>101</v>
       </c>
       <c r="AT3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AU3" t="s">
         <v>101</v>
       </c>
       <c r="AV3" t="s">
+        <v>414</v>
+      </c>
+      <c r="AW3" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>416</v>
       </c>
       <c r="AX3" t="s">
         <v>127</v>
@@ -2825,7 +2828,7 @@
         <v>140</v>
       </c>
       <c r="CE3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="CF3" t="s">
         <v>333</v>
@@ -2864,31 +2867,31 @@
         <v>93</v>
       </c>
       <c r="CY3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="CZ3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="DB3">
         <v>1</v>
       </c>
       <c r="DD3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="DE3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="DF3" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="DG3">
         <v>2</v>
       </c>
       <c r="DI3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:114" x14ac:dyDescent="0.15">
@@ -2923,7 +2926,7 @@
         <v>327</v>
       </c>
       <c r="K4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L4" t="s">
         <v>92</v>
@@ -2989,7 +2992,7 @@
         <v>150</v>
       </c>
       <c r="AH4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI4" t="s">
         <v>152</v>
@@ -2998,7 +3001,7 @@
         <v>153</v>
       </c>
       <c r="AK4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AL4" t="s">
         <v>93</v>
@@ -3031,10 +3034,10 @@
         <v>101</v>
       </c>
       <c r="AV4" t="s">
-        <v>410</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>418</v>
+        <v>409</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="AX4" t="s">
         <v>155</v>
@@ -3064,7 +3067,7 @@
         <v>93</v>
       </c>
       <c r="BG4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="BH4" t="s">
         <v>93</v>
@@ -3130,7 +3133,7 @@
         <v>93</v>
       </c>
       <c r="CD4" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="CE4" t="s">
         <v>141</v>
@@ -3145,7 +3148,7 @@
         <v>288</v>
       </c>
       <c r="CI4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="CJ4" t="s">
         <v>314</v>
@@ -3175,25 +3178,25 @@
         <v>2</v>
       </c>
       <c r="CY4" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="CZ4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="DB4">
         <v>1</v>
       </c>
       <c r="DD4" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="DE4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DF4" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="DG4">
         <v>2</v>
@@ -3237,7 +3240,7 @@
         <v>92</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>326</v>
@@ -3309,7 +3312,7 @@
         <v>171</v>
       </c>
       <c r="AK5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL5" t="s">
         <v>93</v>
@@ -3330,13 +3333,13 @@
         <v>93</v>
       </c>
       <c r="AR5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AS5">
         <v>3333333333</v>
       </c>
       <c r="AT5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AU5">
         <v>3333333333</v>
@@ -3344,17 +3347,17 @@
       <c r="AV5" t="s">
         <v>103</v>
       </c>
-      <c r="AW5" t="s">
-        <v>354</v>
+      <c r="AW5" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="AX5" t="s">
         <v>172</v>
       </c>
       <c r="BF5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BG5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="BI5" t="s">
         <v>93</v>
@@ -3420,7 +3423,7 @@
         <v>338</v>
       </c>
       <c r="CD5" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CE5" t="s">
         <v>116</v>
@@ -3432,19 +3435,19 @@
         <v>43953</v>
       </c>
       <c r="CI5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="CS5">
         <v>83</v>
       </c>
       <c r="CY5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="CZ5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="DA5" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="DB5">
         <v>1</v>
@@ -3482,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L6" t="s">
         <v>92</v>
@@ -3512,7 +3515,7 @@
         <v>182</v>
       </c>
       <c r="U6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="W6">
         <v>76434</v>
@@ -3524,19 +3527,19 @@
         <v>182</v>
       </c>
       <c r="AA6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AC6" t="s">
         <v>183</v>
       </c>
       <c r="AD6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AE6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AK6" t="s">
         <v>93</v>
@@ -3548,34 +3551,34 @@
         <v>185</v>
       </c>
       <c r="AN6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AO6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AP6" t="s">
         <v>186</v>
       </c>
       <c r="AQ6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AR6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AT6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AV6" t="s">
         <v>103</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="AX6" t="s">
         <v>187</v>
@@ -3701,13 +3704,13 @@
         <v>83</v>
       </c>
       <c r="CY6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="CZ6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="DA6" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="DB6">
         <v>1</v>
@@ -3757,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q7" t="s">
         <v>292</v>
@@ -3772,7 +3775,7 @@
         <v>201</v>
       </c>
       <c r="U7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W7">
         <v>42123</v>
@@ -3784,19 +3787,19 @@
         <v>201</v>
       </c>
       <c r="AA7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AC7" t="s">
         <v>202</v>
       </c>
       <c r="AD7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AE7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AK7" t="s">
         <v>93</v>
@@ -3811,31 +3814,31 @@
         <v>205</v>
       </c>
       <c r="AO7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AP7" t="s">
         <v>206</v>
       </c>
       <c r="AQ7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AR7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AS7">
         <v>3333333333</v>
       </c>
       <c r="AT7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AU7">
         <v>3333333333</v>
       </c>
       <c r="AV7" t="s">
-        <v>411</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>355</v>
+        <v>410</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="AX7" t="s">
         <v>207</v>
@@ -3865,7 +3868,7 @@
         <v>93</v>
       </c>
       <c r="BG7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="BH7" t="s">
         <v>212</v>
@@ -3931,10 +3934,10 @@
         <v>337</v>
       </c>
       <c r="CD7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="CE7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="CF7" t="s">
         <v>93</v>
@@ -3946,7 +3949,7 @@
         <v>43954</v>
       </c>
       <c r="CI7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="CJ7" t="s">
         <v>314</v>
@@ -3973,13 +3976,13 @@
         <v>321</v>
       </c>
       <c r="CY7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="CZ7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DA7" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="DB7">
         <v>1</v>
@@ -4017,7 +4020,7 @@
         <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L8" t="s">
         <v>92</v>
@@ -4116,13 +4119,13 @@
         <v>93</v>
       </c>
       <c r="AR8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AS8">
         <v>13333333333</v>
       </c>
       <c r="AT8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AU8">
         <v>13333333333</v>
@@ -4130,8 +4133,8 @@
       <c r="AV8" t="s">
         <v>103</v>
       </c>
-      <c r="AW8" t="s">
-        <v>420</v>
+      <c r="AW8" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="AX8" t="s">
         <v>228</v>
@@ -4161,7 +4164,7 @@
         <v>93</v>
       </c>
       <c r="BG8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="BH8" t="s">
         <v>93</v>
@@ -4230,10 +4233,10 @@
         <v>93</v>
       </c>
       <c r="CD8" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CE8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="CF8" t="s">
         <v>93</v>
@@ -4256,7 +4259,7 @@
         <v>43948</v>
       </c>
       <c r="E9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>89</v>
@@ -4280,7 +4283,7 @@
         <v>92</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>89</v>
@@ -4373,22 +4376,22 @@
         <v>93</v>
       </c>
       <c r="AR9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AS9" t="s">
         <v>101</v>
       </c>
       <c r="AT9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AU9" t="s">
         <v>101</v>
       </c>
       <c r="AV9" t="s">
-        <v>412</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>421</v>
+        <v>411</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="AX9" t="s">
         <v>244</v>
@@ -4487,10 +4490,10 @@
         <v>339</v>
       </c>
       <c r="CD9" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="CE9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="CF9" t="s">
         <v>335</v>
@@ -4552,7 +4555,7 @@
         <v>89</v>
       </c>
       <c r="K10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L10" t="s">
         <v>92</v>
@@ -4564,7 +4567,7 @@
         <v>89</v>
       </c>
       <c r="O10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P10" t="s">
         <v>255</v>
@@ -4651,7 +4654,7 @@
         <v>93</v>
       </c>
       <c r="AR10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AS10" t="s">
         <v>101</v>
@@ -4665,8 +4668,8 @@
       <c r="AV10" t="s">
         <v>103</v>
       </c>
-      <c r="AW10" t="s">
-        <v>93</v>
+      <c r="AW10" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="AX10" t="s">
         <v>264</v>
@@ -4759,10 +4762,10 @@
         <v>89</v>
       </c>
       <c r="CD10" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="CE10" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="CF10" t="s">
         <v>93</v>
@@ -4908,7 +4911,7 @@
         <v>93</v>
       </c>
       <c r="AR11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AS11" t="s">
         <v>101</v>
@@ -4920,10 +4923,10 @@
         <v>101</v>
       </c>
       <c r="AV11" t="s">
-        <v>413</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>93</v>
+        <v>412</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="AX11" t="s">
         <v>280</v>
@@ -5019,10 +5022,10 @@
         <v>93</v>
       </c>
       <c r="CD11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="CE11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="CF11" t="s">
         <v>336</v>
@@ -5090,7 +5093,7 @@
         <v>90</v>
       </c>
       <c r="K12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L12" t="s">
         <v>92</v>
@@ -5105,7 +5108,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q12" t="s">
         <v>93</v>
@@ -5135,20 +5138,21 @@
         <v>300</v>
       </c>
       <c r="AR12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AS12" t="s">
         <v>101</v>
       </c>
       <c r="AT12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AU12" t="s">
         <v>101</v>
       </c>
       <c r="AV12" t="s">
-        <v>414</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="AW12" s="1"/>
       <c r="BO12" t="s">
         <v>111</v>
       </c>
